--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="11520"/>
+    <workbookView windowWidth="24640" windowHeight="10310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
   <si>
     <t>Client</t>
@@ -1085,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1258,7 +1261,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="7:9">
@@ -1266,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="7:9">
@@ -1274,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="7:9">
@@ -1282,7 +1285,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="7:9">
@@ -1290,6 +1293,14 @@
         <v>30</v>
       </c>
       <c r="I15" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2">
         <v>34</v>
       </c>
     </row>

--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
   <si>
     <t>Client</t>
@@ -1088,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1102,7 +1105,7 @@
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.4166666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.58333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5833333333333" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.83333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.58333333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.4166666666667" style="2" customWidth="1"/>
@@ -1269,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="7:9">
@@ -1277,7 +1280,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="7:9">
@@ -1285,7 +1288,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="7:9">
@@ -1293,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="7:9">
@@ -1301,6 +1304,14 @@
         <v>31</v>
       </c>
       <c r="I16" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2">
         <v>34</v>
       </c>
     </row>
